--- a/src/test/java/testdata/Login.xlsx
+++ b/src/test/java/testdata/Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XTGlobal\SeleniumFramework\src\test\java\testdata\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>UserName</t>
   </si>
@@ -104,12 +104,19 @@
   </si>
   <si>
     <t>Verify the user is redirected to dashboard page when clicking on Sign In button by entering valid credentials</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,9 +540,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="88.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="88.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -562,6 +569,9 @@
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -573,6 +583,9 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -584,6 +597,9 @@
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -595,6 +611,9 @@
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -605,6 +624,9 @@
       </c>
       <c r="C6" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -644,11 +666,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="39.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="39.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
